--- a/Cost/Mapfre/Cost_list.xlsx
+++ b/Cost/Mapfre/Cost_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>Frame</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Landing Gear + SD Card</t>
   </si>
   <si>
-    <t>PAID*</t>
-  </si>
-  <si>
     <t>Parachute</t>
   </si>
   <si>
@@ -109,6 +106,24 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>last Monday</t>
+  </si>
+  <si>
+    <t>ACE</t>
+  </si>
+  <si>
+    <t>Y*</t>
+  </si>
+  <si>
+    <t>still we need 1</t>
   </si>
 </sst>
 </file>
@@ -460,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:K28"/>
+  <dimension ref="B4:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,14 +489,15 @@
     <col min="6" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="9" width="11.85546875" style="1" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="H4" s="1">
         <v>8885</v>
       </c>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -507,12 +523,12 @@
         <v>20</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1">
         <v>200</v>
@@ -537,10 +553,10 @@
         <v>21</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,10 +585,10 @@
         <v>21</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -601,10 +617,10 @@
         <v>21</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -635,8 +651,11 @@
       <c r="K10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -662,10 +681,13 @@
         <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
@@ -694,10 +716,10 @@
         <v>21</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -727,10 +749,10 @@
         <v>21</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
@@ -759,10 +781,10 @@
         <v>21</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
@@ -791,10 +813,10 @@
         <v>21</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
@@ -822,8 +844,11 @@
       <c r="J16" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -851,8 +876,11 @@
       <c r="J17" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
@@ -880,8 +908,11 @@
       <c r="J18" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
@@ -904,7 +935,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
@@ -932,8 +963,11 @@
       <c r="J20" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
@@ -961,8 +995,14 @@
       <c r="J21" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>15</v>
       </c>
@@ -991,10 +1031,10 @@
         <v>21</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1017,7 +1057,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1025,10 +1065,10 @@
         <v>4.34</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F26" s="1">
         <f>SUM(F8:F23)</f>
         <v>2893.77</v>
@@ -1042,9 +1082,9 @@
         <v>7618.1600000000008</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H28" s="1">
         <f>H4-H26</f>

--- a/Cost/Mapfre/Cost_list.xlsx
+++ b/Cost/Mapfre/Cost_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t>Frame</t>
   </si>
@@ -48,9 +48,6 @@
     <t xml:space="preserve">Controller </t>
   </si>
   <si>
-    <t>Ardupilot/Pixhawk</t>
-  </si>
-  <si>
     <t>Extra Propeller</t>
   </si>
   <si>
@@ -99,41 +96,64 @@
     <t>Parachute</t>
   </si>
   <si>
-    <t>remain</t>
-  </si>
-  <si>
     <t>ARRIVAL</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>today</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>last Monday</t>
-  </si>
-  <si>
-    <t>ACE</t>
-  </si>
-  <si>
     <t>Y*</t>
   </si>
   <si>
     <t>still we need 1</t>
+  </si>
+  <si>
+    <t>recibido</t>
+  </si>
+  <si>
+    <t>restante</t>
+  </si>
+  <si>
+    <t>Ardupilot</t>
+  </si>
+  <si>
+    <t>GPS+Compass</t>
+  </si>
+  <si>
+    <t>waiting for refund</t>
+  </si>
+  <si>
+    <t>Battery Connectors</t>
+  </si>
+  <si>
+    <t>gastado</t>
+  </si>
+  <si>
+    <t>friday</t>
+  </si>
+  <si>
+    <t>OBSERVATIONS</t>
+  </si>
+  <si>
+    <t>Power Module</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Extra Battery (Colombia)</t>
+  </si>
+  <si>
+    <t>Extra Gimbal (Colombia)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,15 +163,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -159,21 +197,141 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:L28"/>
+  <dimension ref="B4:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,610 +647,808 @@
     <col min="6" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="9" width="11.85546875" style="1" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H4" s="1">
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2">
         <v>8885</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>28</v>
+      <c r="K6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="9">
+        <v>7.99</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>7.99</v>
+      </c>
+      <c r="G7" s="9">
+        <v>7.99</v>
+      </c>
+      <c r="H7" s="15">
+        <v>12.27</v>
+      </c>
+      <c r="I7" s="9">
+        <f>H7-G7</f>
+        <v>4.2799999999999994</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="10">
+        <v>300</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <v>300</v>
+      </c>
+      <c r="G8" s="10">
+        <v>300</v>
+      </c>
+      <c r="H8" s="16">
+        <v>328.44</v>
+      </c>
+      <c r="I8" s="10">
+        <f>H8-G8</f>
+        <v>28.439999999999998</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="10">
+        <v>58.53</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>58.53</v>
+      </c>
+      <c r="G9" s="10">
+        <v>58.53</v>
+      </c>
+      <c r="H9" s="16">
+        <v>58.53</v>
+      </c>
+      <c r="I9" s="10">
+        <f>H9-G9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="10">
         <v>200</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
         <v>200</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G10" s="10">
         <v>200</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H10" s="16">
         <v>335.48</v>
       </c>
-      <c r="I7" s="1">
-        <f>H7-G7</f>
+      <c r="I10" s="10">
+        <f>H10-G10</f>
         <v>135.48000000000002</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
+      <c r="J10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D11" s="10">
         <v>318</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <f>D8*E8</f>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10">
+        <f>D11*E11</f>
         <v>318</v>
       </c>
-      <c r="G8" s="1">
-        <f>F8*3</f>
+      <c r="G11" s="10">
+        <f>F11*3</f>
         <v>954</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H11" s="16">
         <v>954</v>
       </c>
-      <c r="I8" s="1">
-        <f>H8-G8</f>
+      <c r="I11" s="10">
+        <f>H11-G11</f>
         <v>0</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
+      <c r="J11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="10">
+        <v>67.69</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" ref="F12:F28" si="0">D12*E12</f>
+        <v>67.69</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" ref="G12:G28" si="1">F12*3</f>
+        <v>203.07</v>
+      </c>
+      <c r="H12" s="16">
+        <v>222.66</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" ref="I12:I28" si="2">H12-G12</f>
+        <v>19.590000000000003</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D13" s="10">
         <v>160</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E13" s="10">
         <v>2</v>
       </c>
-      <c r="F9" s="1">
-        <f t="shared" ref="F9:F23" si="0">D9*E9</f>
+      <c r="F13" s="10">
+        <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="G9" s="1">
-        <f t="shared" ref="G9:G23" si="1">F9*3</f>
+      <c r="G13" s="10">
+        <f t="shared" si="1"/>
         <v>960</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H13" s="16">
         <v>1079.94</v>
       </c>
-      <c r="I9" s="1">
-        <f t="shared" ref="I9:I23" si="2">H9-G9</f>
+      <c r="I13" s="10">
+        <f t="shared" si="2"/>
         <v>119.94000000000005</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
+      <c r="J13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D14" s="10">
         <v>300</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E14" s="10">
         <v>3</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F14" s="10">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G14" s="10">
         <f t="shared" si="1"/>
         <v>2700</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H14" s="16">
         <v>2759.36</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I14" s="10">
         <f t="shared" si="2"/>
         <v>59.360000000000127</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
+      <c r="J14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D15" s="10">
         <v>26.23</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10">
         <f t="shared" si="0"/>
         <v>26.23</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G15" s="10">
         <f t="shared" si="1"/>
         <v>78.69</v>
       </c>
-      <c r="H11" s="1">
-        <v>108.69</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="H15" s="16">
+        <v>78.69</v>
+      </c>
+      <c r="I15" s="10">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="10">
         <v>21.94</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E16" s="10">
         <v>2</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F16" s="10">
         <f t="shared" si="0"/>
         <v>43.88</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G16" s="10">
         <f t="shared" si="1"/>
         <v>131.64000000000001</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H16" s="16">
         <v>144.57</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I16" s="10">
         <f t="shared" si="2"/>
         <v>12.929999999999978</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
+      <c r="J16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D17" s="10">
         <v>9.99</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E17" s="10">
         <v>2</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F17" s="10">
         <f t="shared" si="0"/>
         <v>19.98</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G17" s="10">
         <f t="shared" si="1"/>
         <v>59.94</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H17" s="16">
         <f>16.35+25.65</f>
         <v>42</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I17" s="10">
         <f t="shared" si="2"/>
         <v>-17.939999999999998</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="J17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="10">
         <v>61.02</v>
       </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10">
         <f t="shared" si="0"/>
         <v>61.02</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G18" s="10">
         <f t="shared" si="1"/>
         <v>183.06</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H18" s="16">
         <v>190.14</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I18" s="10">
         <f t="shared" si="2"/>
         <v>7.0799999999999841</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
+      <c r="J18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D19" s="10">
         <v>346.93</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10">
         <f t="shared" si="0"/>
         <v>346.93</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G19" s="10">
         <f t="shared" si="1"/>
         <v>1040.79</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H19" s="16">
         <v>479.97</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I19" s="10">
         <f t="shared" si="2"/>
         <v>-560.81999999999994</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
+      <c r="J19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="10">
+        <v>160</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="G20" s="10">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+      <c r="H20" s="16">
+        <v>734.14</v>
+      </c>
+      <c r="I20" s="10">
+        <f t="shared" si="2"/>
+        <v>254.14</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="10">
+        <v>80</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="G21" s="10">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="H21" s="16">
+        <v>92.94</v>
+      </c>
+      <c r="I21" s="10">
+        <f t="shared" si="2"/>
+        <v>-147.06</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="1">
-        <v>240</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="1"/>
-        <v>720</v>
-      </c>
-      <c r="H16" s="1">
-        <v>734.14</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="2"/>
-        <v>14.139999999999986</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="D22" s="10">
         <v>39.99</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E22" s="10">
         <v>2</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F22" s="10">
         <f t="shared" si="0"/>
         <v>79.98</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G22" s="10">
         <f t="shared" si="1"/>
         <v>239.94</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H22" s="16">
         <v>64.66</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I22" s="10">
         <f t="shared" si="2"/>
         <v>-175.28</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="J22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="12">
         <v>140.29</v>
       </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10">
         <f t="shared" si="0"/>
         <v>140.29</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G23" s="10">
         <f t="shared" si="1"/>
         <v>420.87</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H23" s="16">
         <v>353.64</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I23" s="10">
         <f t="shared" si="2"/>
         <v>-67.230000000000018</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
+      <c r="J23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="13"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="3">
-        <v>200</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="D24" s="10">
+        <v>15.58</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="0"/>
+        <v>15.58</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" si="1"/>
+        <v>46.74</v>
+      </c>
+      <c r="H24" s="16">
+        <v>98.58</v>
+      </c>
+      <c r="I24" s="10">
         <f t="shared" si="2"/>
-        <v>-600</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
+        <v>51.839999999999996</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="1">
-        <v>15.58</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="0"/>
-        <v>15.58</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="1"/>
-        <v>46.74</v>
-      </c>
-      <c r="H20" s="1">
-        <v>16.579999999999998</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="2"/>
-        <v>-30.160000000000004</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="D25" s="10">
         <v>160</v>
       </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G25" s="10">
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H25" s="16">
         <v>320.70999999999998</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I25" s="10">
         <f t="shared" si="2"/>
         <v>-159.29000000000002</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="J25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="10">
         <v>4.9400000000000004</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E26" s="10">
         <v>2</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F26" s="10">
         <f t="shared" si="0"/>
         <v>9.8800000000000008</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G26" s="10">
         <f t="shared" si="1"/>
         <v>29.64</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H26" s="16">
         <v>29.94</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I26" s="10">
         <f t="shared" si="2"/>
         <v>0.30000000000000071</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="J26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="10">
+        <v>200</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="13"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="10">
         <v>12</v>
       </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="E28" s="10">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G28" s="10">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="I23" s="1">
+      <c r="H28" s="10"/>
+      <c r="I28" s="10">
         <f t="shared" si="2"/>
         <v>-36</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="1">
+      <c r="J28" s="10"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C29" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="16">
         <v>4.34</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F26" s="1">
-        <f>SUM(F8:F23)</f>
-        <v>2893.77</v>
-      </c>
-      <c r="G26" s="1">
-        <f>SUM(G8:G23)</f>
-        <v>8681.3099999999977</v>
-      </c>
-      <c r="H26" s="1">
-        <f>SUM(H7:H24)</f>
-        <v>7618.1600000000008</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="1">
-        <f>H4-H26</f>
-        <v>1266.8399999999992</v>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L29" s="13"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C30" s="11"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F32" s="1"/>
+      <c r="G32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="2">
+        <f>SUM(H7:H29)</f>
+        <v>8385</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="2">
+        <f>H4-H32</f>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Cost/Mapfre/Cost_list.xlsx
+++ b/Cost/Mapfre/Cost_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
   <si>
     <t>Frame</t>
   </si>
@@ -148,6 +148,15 @@
   </si>
   <si>
     <t>Extra Gimbal (Colombia)</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>Y-servo</t>
+  </si>
+  <si>
+    <t>USB cables</t>
   </si>
 </sst>
 </file>
@@ -633,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:L33"/>
+  <dimension ref="B4:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,150 +732,133 @@
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D8" s="10">
-        <v>300</v>
+        <v>5.67</v>
       </c>
       <c r="E8" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F8" s="10">
-        <v>300</v>
+        <f>D8*E8</f>
+        <v>34.019999999999996</v>
       </c>
       <c r="G8" s="10">
-        <v>300</v>
+        <f>F8</f>
+        <v>34.019999999999996</v>
       </c>
       <c r="H8" s="16">
-        <v>328.44</v>
-      </c>
-      <c r="I8" s="10">
-        <f>H8-G8</f>
-        <v>28.439999999999998</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>20</v>
-      </c>
+        <v>34.020000000000003</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
       <c r="K8" s="7"/>
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9" s="10">
-        <v>58.53</v>
+        <v>6.41</v>
       </c>
       <c r="E9" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" s="10">
-        <v>58.53</v>
+        <f>D9*E9</f>
+        <v>25.64</v>
       </c>
       <c r="G9" s="10">
-        <v>58.53</v>
+        <f>F9</f>
+        <v>25.64</v>
       </c>
       <c r="H9" s="16">
-        <v>58.53</v>
-      </c>
-      <c r="I9" s="10">
-        <f>H9-G9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>20</v>
-      </c>
+        <v>25.67</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
       <c r="K9" s="7"/>
       <c r="L9" s="13"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" s="10" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D10" s="10">
-        <v>200</v>
+        <v>27.5</v>
       </c>
       <c r="E10" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" s="10">
-        <v>200</v>
+        <f>D10*E10</f>
+        <v>110</v>
       </c>
       <c r="G10" s="10">
-        <v>200</v>
+        <f>F10</f>
+        <v>110</v>
       </c>
       <c r="H10" s="16">
-        <v>335.48</v>
-      </c>
-      <c r="I10" s="10">
-        <f>H10-G10</f>
-        <v>135.48000000000002</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D11" s="10">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="E11" s="10">
         <v>1</v>
       </c>
       <c r="F11" s="10">
-        <f>D11*E11</f>
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="G11" s="10">
-        <f>F11*3</f>
-        <v>954</v>
+        <v>300</v>
       </c>
       <c r="H11" s="16">
-        <v>954</v>
+        <v>328.44</v>
       </c>
       <c r="I11" s="10">
         <f>H11-G11</f>
-        <v>0</v>
+        <v>28.439999999999998</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="K11" s="7"/>
       <c r="L11" s="13"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D12" s="10">
-        <v>67.69</v>
+        <v>58.53</v>
       </c>
       <c r="E12" s="10">
         <v>1</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" ref="F12:F28" si="0">D12*E12</f>
-        <v>67.69</v>
+        <v>58.53</v>
       </c>
       <c r="G12" s="10">
-        <f t="shared" ref="G12:G28" si="1">F12*3</f>
-        <v>203.07</v>
+        <v>58.53</v>
       </c>
       <c r="H12" s="16">
-        <v>222.66</v>
+        <v>58.53</v>
       </c>
       <c r="I12" s="10">
-        <f t="shared" ref="I12:I28" si="2">H12-G12</f>
-        <v>19.590000000000003</v>
+        <f>H12-G12</f>
+        <v>0</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>20</v>
@@ -876,574 +868,674 @@
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="10">
+        <v>200</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>200</v>
+      </c>
+      <c r="G13" s="10">
+        <v>200</v>
+      </c>
+      <c r="H13" s="16">
+        <v>335.48</v>
+      </c>
+      <c r="I13" s="10">
+        <f>H13-G13</f>
+        <v>135.48000000000002</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
+        <v>318</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10">
+        <f>D14*E14</f>
+        <v>318</v>
+      </c>
+      <c r="G14" s="10">
+        <f>F14*3</f>
+        <v>954</v>
+      </c>
+      <c r="H14" s="16">
+        <v>954</v>
+      </c>
+      <c r="I14" s="10">
+        <f>H14-G14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="10">
+        <v>67.69</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" ref="F15:F31" si="0">D15*E15</f>
+        <v>67.69</v>
+      </c>
+      <c r="G15" s="10">
+        <f t="shared" ref="G15:G31" si="1">F15*3</f>
+        <v>203.07</v>
+      </c>
+      <c r="H15" s="16">
+        <v>222.66</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" ref="I15:I31" si="2">H15-G15</f>
+        <v>19.590000000000003</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D16" s="10">
         <v>160</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E16" s="10">
         <v>2</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F16" s="10">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G16" s="10">
         <f t="shared" si="1"/>
         <v>960</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H16" s="16">
         <v>1079.94</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I16" s="10">
         <f t="shared" si="2"/>
         <v>119.94000000000005</v>
       </c>
-      <c r="J13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="J16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="13"/>
-    </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="10" t="s">
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D17" s="10">
         <v>300</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E17" s="10">
         <v>3</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F17" s="10">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G17" s="10">
         <f t="shared" si="1"/>
         <v>2700</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H17" s="16">
         <v>2759.36</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I17" s="10">
         <f t="shared" si="2"/>
         <v>59.360000000000127</v>
       </c>
-      <c r="J14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="J17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="13"/>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="10" t="s">
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D18" s="10">
         <v>26.23</v>
       </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="10">
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10">
         <f t="shared" si="0"/>
         <v>26.23</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G18" s="10">
         <f t="shared" si="1"/>
         <v>78.69</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H18" s="16">
         <v>78.69</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I18" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="7" t="s">
+      <c r="J18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="13"/>
-    </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="10" t="s">
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D19" s="10">
         <v>21.94</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E19" s="10">
         <v>2</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F19" s="10">
         <f t="shared" si="0"/>
         <v>43.88</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G19" s="10">
         <f t="shared" si="1"/>
         <v>131.64000000000001</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H19" s="16">
         <v>144.57</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I19" s="10">
         <f t="shared" si="2"/>
         <v>12.929999999999978</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="J19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="13"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="10" t="s">
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D20" s="10">
         <v>9.99</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E20" s="10">
         <v>2</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F20" s="10">
         <f t="shared" si="0"/>
         <v>19.98</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G20" s="10">
         <f t="shared" si="1"/>
         <v>59.94</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H20" s="16">
         <f>16.35+25.65</f>
         <v>42</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I20" s="10">
         <f t="shared" si="2"/>
         <v>-17.939999999999998</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="J20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L17" s="13"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C18" s="10" t="s">
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D21" s="10">
         <v>61.02</v>
       </c>
-      <c r="E18" s="10">
-        <v>1</v>
-      </c>
-      <c r="F18" s="10">
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="10">
         <f t="shared" si="0"/>
         <v>61.02</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G21" s="10">
         <f t="shared" si="1"/>
         <v>183.06</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H21" s="16">
         <v>190.14</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I21" s="10">
         <f t="shared" si="2"/>
         <v>7.0799999999999841</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="7" t="s">
+      <c r="J21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="13"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="10" t="s">
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D22" s="10">
         <v>346.93</v>
       </c>
-      <c r="E19" s="10">
-        <v>1</v>
-      </c>
-      <c r="F19" s="10">
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10">
         <f t="shared" si="0"/>
         <v>346.93</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G22" s="10">
         <f t="shared" si="1"/>
         <v>1040.79</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H22" s="16">
         <v>479.97</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I22" s="10">
         <f t="shared" si="2"/>
         <v>-560.81999999999994</v>
       </c>
-      <c r="J19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="J22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="13"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="10" t="s">
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D23" s="10">
         <v>160</v>
       </c>
-      <c r="E20" s="10">
-        <v>1</v>
-      </c>
-      <c r="F20" s="10">
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G23" s="10">
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H23" s="16">
         <v>734.14</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I23" s="10">
         <f t="shared" si="2"/>
         <v>254.14</v>
       </c>
-      <c r="J20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="J23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L23" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C21" s="10" t="s">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D24" s="10">
         <v>80</v>
       </c>
-      <c r="E21" s="10">
-        <v>1</v>
-      </c>
-      <c r="F21" s="10">
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G24" s="10">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H24" s="16">
         <v>92.94</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I24" s="10">
         <f t="shared" si="2"/>
         <v>-147.06</v>
       </c>
-      <c r="J21" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="7" t="s">
+      <c r="J24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="13"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C22" s="10" t="s">
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D25" s="10">
         <v>39.99</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E25" s="10">
         <v>2</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F25" s="10">
         <f t="shared" si="0"/>
         <v>79.98</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G25" s="10">
         <f t="shared" si="1"/>
         <v>239.94</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H25" s="16">
         <v>64.66</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I25" s="10">
         <f t="shared" si="2"/>
         <v>-175.28</v>
       </c>
-      <c r="J22" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="J25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="13"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C23" s="10" t="s">
+      <c r="L25" s="13"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D26" s="12">
         <v>140.29</v>
       </c>
-      <c r="E23" s="10">
-        <v>1</v>
-      </c>
-      <c r="F23" s="10">
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="10">
         <f t="shared" si="0"/>
         <v>140.29</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G26" s="10">
         <f t="shared" si="1"/>
         <v>420.87</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H26" s="16">
         <v>353.64</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I26" s="10">
         <f t="shared" si="2"/>
         <v>-67.230000000000018</v>
       </c>
-      <c r="J23" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="7" t="s">
+      <c r="J26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L23" s="13"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="10" t="s">
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D27" s="10">
         <v>15.58</v>
       </c>
-      <c r="E24" s="10">
-        <v>1</v>
-      </c>
-      <c r="F24" s="10">
+      <c r="E27" s="10">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10">
         <f t="shared" si="0"/>
         <v>15.58</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G27" s="10">
         <f t="shared" si="1"/>
         <v>46.74</v>
       </c>
-      <c r="H24" s="16">
-        <v>98.58</v>
-      </c>
-      <c r="I24" s="10">
+      <c r="H27" s="16">
+        <v>115.32</v>
+      </c>
+      <c r="I27" s="10">
         <f t="shared" si="2"/>
-        <v>51.839999999999996</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="7" t="s">
+        <v>68.579999999999984</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L24" s="13"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C25" s="10" t="s">
+      <c r="L27" s="13"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D28" s="10">
         <v>160</v>
       </c>
-      <c r="E25" s="10">
-        <v>1</v>
-      </c>
-      <c r="F25" s="10">
+      <c r="E28" s="10">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G28" s="10">
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H28" s="16">
         <v>320.70999999999998</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I28" s="10">
         <f t="shared" si="2"/>
         <v>-159.29000000000002</v>
       </c>
-      <c r="J25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="7" t="s">
+      <c r="J28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="L28" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C26" s="10" t="s">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C29" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D29" s="10">
         <v>4.9400000000000004</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E29" s="10">
         <v>2</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F29" s="10">
         <f t="shared" si="0"/>
         <v>9.8800000000000008</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G29" s="10">
         <f t="shared" si="1"/>
         <v>29.64</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H29" s="16">
         <v>29.94</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I29" s="10">
         <f t="shared" si="2"/>
         <v>0.30000000000000071</v>
       </c>
-      <c r="J26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="7" t="s">
+      <c r="J29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L26" s="13"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C27" s="10" t="s">
+      <c r="L29" s="13"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D30" s="10">
         <v>200</v>
       </c>
-      <c r="E27" s="10">
-        <v>1</v>
-      </c>
-      <c r="F27" s="10">
+      <c r="E30" s="10">
+        <v>1</v>
+      </c>
+      <c r="F30" s="10">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G30" s="10">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="13"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C28" s="10" t="s">
+      <c r="H30" s="16">
+        <v>200</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="2"/>
+        <v>-400</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C31" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D31" s="10">
         <v>12</v>
       </c>
-      <c r="E28" s="10">
-        <v>1</v>
-      </c>
-      <c r="F28" s="10">
+      <c r="E31" s="10">
+        <v>1</v>
+      </c>
+      <c r="F31" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G31" s="10">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10">
+      <c r="H31" s="10"/>
+      <c r="I31" s="10">
         <f t="shared" si="2"/>
         <v>-36</v>
       </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="13"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C29" s="10" t="s">
+      <c r="J31" s="10"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="13"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C32" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="16">
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="16">
         <v>4.34</v>
       </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="7" t="s">
+      <c r="I32" s="10"/>
+      <c r="J32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L29" s="13"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C30" s="11"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="14"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F32" s="1"/>
-      <c r="G32" s="4" t="s">
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C33" s="11"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F35" s="1"/>
+      <c r="G35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H32" s="2">
-        <f>SUM(H7:H29)</f>
-        <v>8385</v>
-      </c>
-    </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G33" s="3" t="s">
+      <c r="H35" s="2">
+        <f>SUM(H7:H32)</f>
+        <v>8771.43</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="2">
-        <f>H4-H32</f>
-        <v>500</v>
+      <c r="H36" s="2">
+        <f>H4-H35</f>
+        <v>113.56999999999971</v>
       </c>
     </row>
   </sheetData>
